--- a/results/by_outcome/full_results_education_PGI_Brothers_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_Brothers_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.593271778237796</v>
+        <v>0.590090404453821</v>
       </c>
       <c r="I2" t="n">
-        <v>0.291783304323464</v>
+        <v>0.295582270908201</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.406999065746421</v>
+        <v>0.410178944660381</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.580794523478386</v>
+        <v>0.581023631753013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.315029186783785</v>
+        <v>0.315306377745138</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.604924804778172</v>
+        <v>0.60493272865191</v>
       </c>
       <c r="D4" t="n">
-        <v>0.395531930183655</v>
+        <v>0.395523933953698</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00045673496183</v>
+        <v>1.00045666260561</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.395351359452848</v>
+        <v>0.395343395207135</v>
       </c>
       <c r="K4" t="n">
-        <v>0.314885367709891</v>
+        <v>0.315162454701054</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0124715588541878</v>
+        <v>-0.0090626340726711</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0116477062935724</v>
+        <v>0.0148355494532462</v>
       </c>
       <c r="N4" t="n">
-        <v>0.302413808855703</v>
+        <v>0.306099820628382</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.395351359452848</v>
+        <v>0.395343395207135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.327188036284114</v>
+        <v>0.327346032413468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.463514682621583</v>
+        <v>0.463340758000802</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302413808855703</v>
+        <v>0.306099820628382</v>
       </c>
       <c r="D3" t="n">
-        <v>0.228707366385173</v>
+        <v>0.23252778120793</v>
       </c>
       <c r="E3" t="n">
-        <v>0.376120251326232</v>
+        <v>0.379671860048835</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.406999065746421</v>
+        <v>0.410178944660381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.335970487190677</v>
+        <v>0.338858924177425</v>
       </c>
       <c r="E4" t="n">
-        <v>0.478027644302165</v>
+        <v>0.481498965143336</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_PGI_Brothers_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_Brothers_MI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.590090404453821</v>
+        <v>0.5914681827557</v>
       </c>
       <c r="I2" t="n">
-        <v>0.295582270908201</v>
+        <v>0.293511833489044</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +510,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.410178944660381</v>
+        <v>0.408801854619293</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +530,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.581023631753013</v>
+        <v>0.581037529563094</v>
       </c>
       <c r="G3" t="n">
-        <v>0.315306377745138</v>
+        <v>0.315587189877515</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +568,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.60493272865191</v>
+        <v>0.604931489434978</v>
       </c>
       <c r="D4" t="n">
-        <v>0.395523933953698</v>
+        <v>0.39552527286429</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00045666260561</v>
+        <v>1.00045676229927</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +589,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.395343395207135</v>
+        <v>0.395344694061389</v>
       </c>
       <c r="K4" t="n">
-        <v>0.315162454701054</v>
+        <v>0.315443107225856</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0090626340726711</v>
+        <v>-0.0104258905259638</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0148355494532462</v>
+        <v>0.0134571605579048</v>
       </c>
       <c r="N4" t="n">
-        <v>0.306099820628382</v>
+        <v>0.305017216699892</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -631,6 +637,9 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -640,13 +649,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.395343395207135</v>
+        <v>0.395344694061389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.327346032413468</v>
+        <v>0.3303242526774</v>
       </c>
       <c r="E2" t="n">
-        <v>0.463340758000802</v>
+        <v>0.460365135445377</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00000000000000000000000000000000962990247472261</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +669,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306099820628382</v>
+        <v>0.305017216699892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23252778120793</v>
+        <v>0.234807475418613</v>
       </c>
       <c r="E3" t="n">
-        <v>0.379671860048835</v>
+        <v>0.375226957981171</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0000000000000000168154307612359</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +689,36 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410178944660381</v>
+        <v>0.408801854619293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.338858924177425</v>
+        <v>0.338371239199597</v>
       </c>
       <c r="E4" t="n">
-        <v>0.481498965143336</v>
+        <v>0.47923247003899</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.00000000000000000000000000000563692341383659</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.103784637919402</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0660163307293386</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.141552945109465</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0000000721068200561201</v>
       </c>
     </row>
   </sheetData>
